--- a/Heuristicas/Resultado_Ensemble_smape_cenario_29.xlsx
+++ b/Heuristicas/Resultado_Ensemble_smape_cenario_29.xlsx
@@ -1,15 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amaral\Documents\Faculdade\tcc\Heuristicas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792ADDED-37D1-4DE3-BD59-2679B68F256E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView minimized="1" xWindow="14970" yWindow="2640" windowWidth="3240" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -250,8 +266,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,11 +330,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -360,7 +384,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -392,9 +416,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -426,6 +468,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -601,14 +661,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,24 +687,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>36.229</v>
+        <v>36.228999999999999</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -653,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.646</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -670,86 +732,86 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.401</v>
+        <v>6.4009999999999998</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.055</v>
+        <v>5.5E-2</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>27.455</v>
+        <v>27.454999999999998</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.094</v>
+        <v>9.4E-2</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>107.013</v>
+        <v>107.01300000000001</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.053</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>92.157</v>
+        <v>92.156999999999996</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>217.781</v>
+        <v>217.78100000000001</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.089</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -761,41 +823,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.168</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>185.112</v>
+        <v>185.11199999999999</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.239</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>200.628</v>
+        <v>200.62799999999999</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -803,21 +865,21 @@
         <v>0.123</v>
       </c>
       <c r="C12">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D12">
-        <v>211.229</v>
+        <v>211.22900000000001</v>
       </c>
       <c r="E12">
-        <v>5.884</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>5.8840000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.013</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -826,27 +888,27 @@
         <v>11.273</v>
       </c>
       <c r="E13">
-        <v>0.092</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.06900000000000001</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="C14">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="D14">
         <v>125.852</v>
       </c>
       <c r="E14">
-        <v>7.551</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>7.5510000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -854,7 +916,7 @@
         <v>0.224</v>
       </c>
       <c r="C15">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="D15">
         <v>46.073</v>
@@ -863,24 +925,24 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.148</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>29.335</v>
+        <v>29.335000000000001</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -888,72 +950,72 @@
         <v>0.108</v>
       </c>
       <c r="C17">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D17">
         <v>33.49</v>
       </c>
       <c r="E17">
-        <v>0.078</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0.097</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>23.912</v>
+        <v>23.911999999999999</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
       <c r="B19">
-        <v>0.061</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="C19">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D19">
-        <v>80.542</v>
+        <v>80.542000000000002</v>
       </c>
       <c r="E19">
-        <v>0.705</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.70499999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.046</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>44.441</v>
+        <v>44.441000000000003</v>
       </c>
       <c r="E20">
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.116</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -965,24 +1027,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.078</v>
+        <v>7.8E-2</v>
       </c>
       <c r="C22">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D22">
-        <v>171.243</v>
+        <v>171.24299999999999</v>
       </c>
       <c r="E22">
-        <v>9.141999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>9.1419999999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -993,86 +1055,86 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>157.837</v>
+        <v>157.83699999999999</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.051</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="C24">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D24">
-        <v>42.614</v>
+        <v>42.613999999999997</v>
       </c>
       <c r="E24">
-        <v>0.491</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.49099999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.234</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>120.531</v>
+        <v>120.53100000000001</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.046</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="C26">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D26">
-        <v>18.888</v>
+        <v>18.888000000000002</v>
       </c>
       <c r="E26">
-        <v>0.891</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.89100000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
       <c r="B27">
-        <v>0.036</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>40.532</v>
+        <v>40.531999999999996</v>
       </c>
       <c r="E27">
         <v>0.76</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0.067</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1084,46 +1146,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0.209</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>263.523</v>
+        <v>263.52300000000002</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.053</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>25.001</v>
+        <v>25.001000000000001</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.056</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1132,10 +1194,10 @@
         <v>43.311</v>
       </c>
       <c r="E31">
-        <v>0.103</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1143,38 +1205,38 @@
         <v>0.16</v>
       </c>
       <c r="C32">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D32">
-        <v>363.323</v>
+        <v>363.32299999999998</v>
       </c>
       <c r="E32">
-        <v>7.691</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>7.6909999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0.079</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>35.679</v>
+        <v>35.679000000000002</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.243</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1186,24 +1248,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
       <c r="B35">
-        <v>0.075</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C35">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D35">
-        <v>82.59099999999999</v>
+        <v>82.590999999999994</v>
       </c>
       <c r="E35">
-        <v>4.344</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>4.3440000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1211,16 +1273,16 @@
         <v>0.107</v>
       </c>
       <c r="C36">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="D36">
-        <v>163.433</v>
+        <v>163.43299999999999</v>
       </c>
       <c r="E36">
         <v>2.74</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1228,16 +1290,16 @@
         <v>0.161</v>
       </c>
       <c r="C37">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="D37">
-        <v>9.371</v>
+        <v>9.3710000000000004</v>
       </c>
       <c r="E37">
-        <v>0.064</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1245,84 +1307,84 @@
         <v>0.246</v>
       </c>
       <c r="C38">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D38">
-        <v>275.263</v>
+        <v>275.26299999999998</v>
       </c>
       <c r="E38">
-        <v>1.207</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>1.2070000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0.065</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>37.466</v>
+        <v>37.466000000000001</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0.052</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>6.595</v>
+        <v>6.5949999999999998</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
       <c r="B41">
-        <v>0.256</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>418.241</v>
+        <v>418.24099999999999</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
       <c r="B42">
-        <v>0.201</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>287.808</v>
+        <v>287.80799999999999</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -1333,13 +1395,13 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>66.729</v>
+        <v>66.728999999999999</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -1350,35 +1412,35 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>323.603</v>
+        <v>323.60300000000001</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
       <c r="B45">
-        <v>0.059</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="C45">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D45">
-        <v>0.058</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="E45">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0.162</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1387,10 +1449,10 @@
         <v>105.852</v>
       </c>
       <c r="E46">
-        <v>0.038</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -1398,38 +1460,38 @@
         <v>0.04</v>
       </c>
       <c r="C47">
-        <v>0.011</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="D47">
-        <v>0.038</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="E47">
-        <v>0.008999999999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.068</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>307017.773</v>
+        <v>307017.77299999999</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0.201</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1441,58 +1503,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>63.031</v>
+        <v>63.030999999999999</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>8971197.538000001</v>
+        <v>8971197.5380000006</v>
       </c>
       <c r="E51">
-        <v>721329.328</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>721329.32799999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>10616268.095</v>
+        <v>10616268.095000001</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -1503,13 +1565,13 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>48.049</v>
+        <v>48.048999999999999</v>
       </c>
       <c r="E53">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -1523,10 +1585,10 @@
         <v>14424.196</v>
       </c>
       <c r="E54">
-        <v>5069.321</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>5069.3209999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -1534,72 +1596,72 @@
         <v>0.19</v>
       </c>
       <c r="C55">
-        <v>0.007</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="D55">
-        <v>85.94199999999999</v>
+        <v>85.941999999999993</v>
       </c>
       <c r="E55">
-        <v>2.652</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>2.6520000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>59</v>
       </c>
       <c r="B56">
-        <v>0.095</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="C56">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D56">
-        <v>3678.941</v>
+        <v>3678.9409999999998</v>
       </c>
       <c r="E56">
         <v>36.991</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>60</v>
       </c>
       <c r="B57">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>60.971</v>
+        <v>60.970999999999997</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>61</v>
       </c>
       <c r="B58">
-        <v>0.242</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="C58">
-        <v>0.013</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="D58">
-        <v>17582.961</v>
+        <v>17582.960999999999</v>
       </c>
       <c r="E58">
-        <v>1171.584</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>1171.5840000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0.454</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1611,41 +1673,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>63</v>
       </c>
       <c r="B60">
-        <v>0.401</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="C60">
-        <v>0.015</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D60">
         <v>111.937</v>
       </c>
       <c r="E60">
-        <v>5.888</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>5.8879999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>64</v>
       </c>
       <c r="B61">
-        <v>0.426</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="C61">
-        <v>0.011</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="D61">
-        <v>166.016</v>
+        <v>166.01599999999999</v>
       </c>
       <c r="E61">
-        <v>8.103</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>8.1029999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -1662,41 +1724,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0.079</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
-        <v>1056.929</v>
+        <v>1056.9290000000001</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>67</v>
       </c>
       <c r="B64">
-        <v>0.178</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>7626.112</v>
+        <v>7626.1120000000001</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -1707,47 +1769,47 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>17632.743</v>
+        <v>17632.742999999999</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>69</v>
       </c>
       <c r="B66">
-        <v>0.137</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>2952.791</v>
+        <v>2952.7910000000002</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>70</v>
       </c>
       <c r="B67">
-        <v>0.258</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
-        <v>5172.694</v>
+        <v>5172.6940000000004</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>71</v>
       </c>
@@ -1755,16 +1817,16 @@
         <v>0.02</v>
       </c>
       <c r="C68">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D68">
-        <v>14.283</v>
+        <v>14.282999999999999</v>
       </c>
       <c r="E68">
-        <v>0.844</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.84399999999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>72</v>
       </c>
@@ -1775,78 +1837,84 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>11833214.985</v>
+        <v>11833214.984999999</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>73</v>
       </c>
       <c r="B70">
-        <v>0.286</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="C70">
-        <v>0.074</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="D70">
-        <v>2027846.235</v>
+        <v>2027846.2350000001</v>
       </c>
       <c r="E70">
-        <v>579105.3959999999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>579105.39599999995</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>74</v>
       </c>
       <c r="B71">
-        <v>0.266</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="C71">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="D71">
-        <v>5266364.294</v>
+        <v>5266364.2939999998</v>
       </c>
       <c r="E71">
-        <v>49290.293</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>49290.292999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>75</v>
       </c>
       <c r="B72">
-        <v>0.023</v>
+        <v>2.3E-2</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72">
-        <v>13.001</v>
+        <v>13.000999999999999</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0.044</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="C73">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="D73">
-        <v>24.963</v>
+        <v>24.963000000000001</v>
       </c>
       <c r="E73">
-        <v>1.066</v>
+        <v>1.0660000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <f>AVERAGE(B2:B73)</f>
+        <v>0.1496527777777778</v>
       </c>
     </row>
   </sheetData>
